--- a/project_tracker.xlsx
+++ b/project_tracker.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://northeastern-my.sharepoint.com/personal/kulch_t_northeastern_edu/Documents/Desktop/5110/Final_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://northeastern-my.sharepoint.com/personal/kulch_t_northeastern_edu/Documents/Desktop/5110/Final_Project/Golf-Course-Manager/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{05AAF408-A97B-2F45-A453-CB780F88218B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E9E4B5B-8812-1B4F-8246-30FECBAD6517}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="8_{05AAF408-A97B-2F45-A453-CB780F88218B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01572AE8-DB47-A742-969D-C38FA96AC888}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28600" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Schedule " sheetId="2" r:id="rId1"/>
     <sheet name="Template" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -207,13 +220,76 @@
   </si>
   <si>
     <t>Submit Iteration 2</t>
+  </si>
+  <si>
+    <t>Submit Iteration 3</t>
+  </si>
+  <si>
+    <t>explore data</t>
+  </si>
+  <si>
+    <t>data reshaping</t>
+  </si>
+  <si>
+    <t>statistical analysis</t>
+  </si>
+  <si>
+    <t>pyspark pipeline</t>
+  </si>
+  <si>
+    <t>database design</t>
+  </si>
+  <si>
+    <t>feature engineering</t>
+  </si>
+  <si>
+    <t>ML model 1 : Score prediction</t>
+  </si>
+  <si>
+    <t>create report and presentation slides</t>
+  </si>
+  <si>
+    <t>all steps outlined in document if we need a reference</t>
+  </si>
+  <si>
+    <t>Program for booking rounds and entering rounds</t>
+  </si>
+  <si>
+    <t>clean up code/push to git</t>
+  </si>
+  <si>
+    <t>one of the bulkiest bits of the project, we are at trying to insert data, code is pretty much written for pipeline</t>
+  </si>
+  <si>
+    <t>handicap update calculator</t>
+  </si>
+  <si>
+    <t>put this as a trigger in SQL for after insert of records</t>
+  </si>
+  <si>
+    <t>Learn how to deploy these models to be used by our program after they've been trained</t>
+  </si>
+  <si>
+    <t>pulled from db. Ready for ml</t>
+  </si>
+  <si>
+    <t>Did dynamic pricing func here too</t>
+  </si>
+  <si>
+    <t>Export model for use in program</t>
+  </si>
+  <si>
+    <t>testing files or make flask app</t>
+  </si>
+  <si>
+    <t>do test files if we are limited on time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +317,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +385,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -316,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -333,6 +421,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -352,6 +442,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -639,33 +733,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25566C2C-9B0D-1745-B448-72AEB94B32C8}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="76.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="142.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -707,10 +801,11 @@
         <v>45812</v>
       </c>
       <c r="B6" s="13">
-        <v>45884</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
+        <v>45873</v>
+      </c>
+      <c r="C6" s="15">
+        <f>COUNTIF(F8:F23, "Complete") / COUNTA(F8:F23)</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -750,13 +845,10 @@
         <v>45812</v>
       </c>
       <c r="E8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -773,109 +865,330 @@
         <v>45813</v>
       </c>
       <c r="E9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="A10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="12">
+        <v>45813</v>
+      </c>
+      <c r="D10" s="12">
+        <v>45813</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="12">
+        <v>45846</v>
+      </c>
+      <c r="D11" s="12">
+        <v>45847</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="12">
+        <v>45846</v>
+      </c>
+      <c r="D12" s="12">
+        <v>45847</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="A13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="12">
+        <v>45848</v>
+      </c>
+      <c r="D13" s="12">
+        <v>45848</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="A14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="12">
+        <v>45848</v>
+      </c>
+      <c r="D14" s="12">
+        <v>45849</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="A15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="12">
+        <v>45854</v>
+      </c>
+      <c r="D15" s="12">
+        <v>45854</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="A16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="12">
+        <v>45849</v>
+      </c>
+      <c r="D16" s="12">
+        <v>45856</v>
+      </c>
+      <c r="E16" s="7">
+        <v>7</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="A17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="12">
+        <v>45856</v>
+      </c>
+      <c r="D17" s="12">
+        <v>45858</v>
+      </c>
+      <c r="E17" s="7">
+        <v>3</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="A18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="12">
+        <v>45859</v>
+      </c>
+      <c r="D18" s="12">
+        <v>45861</v>
+      </c>
+      <c r="E18" s="7">
+        <v>3</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="12">
+        <v>45862</v>
+      </c>
+      <c r="D19" s="12">
+        <v>45863</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="A20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="12">
+        <v>45864</v>
+      </c>
+      <c r="D20" s="12">
+        <v>45867</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="A21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="12">
+        <v>45868</v>
+      </c>
+      <c r="D21" s="12">
+        <v>45868</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="A22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="12">
+        <v>45869</v>
+      </c>
+      <c r="D22" s="12">
+        <v>45870</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="12">
+        <v>45871</v>
+      </c>
+      <c r="D23" s="12">
+        <v>45873</v>
+      </c>
+      <c r="E23" s="7">
+        <v>3</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -885,7 +1198,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -900,15 +1213,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
